--- a/ganttChart.xlsx
+++ b/ganttChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -93,9 +93,6 @@
     <t xml:space="preserve">               Web Page design</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>highlight</t>
   </si>
 </sst>
@@ -104,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode=";;;"/>
+    <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -385,18 +382,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -445,18 +442,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="4">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -506,381 +503,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="8" tint="0.59999389629810485"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.49803155613879818"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.49803155613879818"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.74901577806939912"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="8" tint="0.59999389629810485"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.49803155613879818"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.49803155613879818"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.74901577806939912"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="8" tint="0.59999389629810485"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.49803155613879818"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.74901577806939912"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="8" tint="0.59999389629810485"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-0.74901577806939912"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="8" tint="0.59999389629810485"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1205,7 +827,7 @@
   <dimension ref="A3:EM24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1218,11 +840,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:143">
-      <c r="C3" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29">
+      <c r="C3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27">
         <v>43981</v>
       </c>
     </row>
@@ -3546,7 +3168,7 @@
         <v/>
       </c>
       <c r="BS9" s="5" t="str">
-        <f t="shared" ref="H9:BS23" si="5">IF(AND(BS$5&gt;=$C9,BS$5&lt;=$D9),$F9,"")</f>
+        <f t="shared" ref="H9:BS13" si="5">IF(AND(BS$5&gt;=$C9,BS$5&lt;=$D9),$F9,"")</f>
         <v/>
       </c>
       <c r="BT9" s="5" t="str">
@@ -3802,7 +3424,7 @@
         <v/>
       </c>
       <c r="EE9" s="5" t="str">
-        <f t="shared" ref="BT9:EE23" si="6">IF(AND(EE$5&gt;=$C9,EE$5&lt;=$D9),$F9,"")</f>
+        <f t="shared" ref="BT9:EE13" si="6">IF(AND(EE$5&gt;=$C9,EE$5&lt;=$D9),$F9,"")</f>
         <v/>
       </c>
       <c r="EF9" s="6" t="str">
@@ -6539,7 +6161,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6823,203 +6445,203 @@
       </c>
       <c r="BY15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="BZ15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CA15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CB15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CC15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CD15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CE15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CF15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CG15" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CH15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CI15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CJ15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CK15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CL15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CM15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CN15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CO15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CP15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CQ15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CR15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CS15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CT15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CU15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CV15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CW15" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CX15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CY15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="CZ15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DA15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DB15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DC15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DD15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DE15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DF15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DG15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DH15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DI15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DJ15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DK15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DL15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DM15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DN15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DO15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DP15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DQ15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DR15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DS15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DT15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DU15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DV15" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="DW15" s="5" t="str">
         <f t="shared" si="14"/>
@@ -7071,17 +6693,17 @@
         <v>8</v>
       </c>
       <c r="C16" s="14">
-        <v>43862</v>
+        <v>43966</v>
       </c>
       <c r="D16" s="14">
-        <v>43863</v>
+        <v>43976</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7125,11 +6747,11 @@
       </c>
       <c r="Q16" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Pending</v>
+        <v/>
       </c>
       <c r="R16" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Pending</v>
+        <v/>
       </c>
       <c r="S16" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7541,47 +7163,47 @@
       </c>
       <c r="DQ16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DR16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DS16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DT16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DU16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DV16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DW16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DX16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DY16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="DZ16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="EA16" s="5" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="EB16" s="5" t="str">
         <f t="shared" si="14"/>
